--- a/TestData/Staging/Web_POS/Billing/split_payment_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/split_payment_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,10 +134,10 @@
     <t>TC_2</t>
   </si>
   <si>
-    <t>4920908247Dr</t>
-  </si>
-  <si>
-    <t>B_Split_Payment_user2_p3</t>
+    <t>492230824ly5</t>
+  </si>
+  <si>
+    <t>B_Split_Payment_user2_p2</t>
   </si>
   <si>
     <t>1234b : 1</t>
@@ -309,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,11 +323,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -385,25 +380,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -416,11 +394,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,9 +406,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -440,8 +417,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,9 +427,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -711,11 +688,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q1">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="O1">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.63" customWidth="1"/>
     <col min="2" max="2" width="19.28" customWidth="1"/>
@@ -731,7 +708,7 @@
     <col min="15" max="17" width="19.11" customWidth="1"/>
     <col min="18" max="20" width="29.44" style="2" customWidth="1"/>
     <col min="21" max="24" width="12.63" customWidth="1"/>
-    <col min="25" max="25" width="12.64453" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.64453" customWidth="1"/>
     <col min="26" max="1021" width="12.63" customWidth="1"/>
   </cols>
   <sheetData>
@@ -739,19 +716,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -808,7 +785,7 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -816,7 +793,7 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
@@ -831,10 +808,10 @@
       <c r="F2">
         <v>123456</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
@@ -855,13 +832,13 @@
       <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>45384</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -885,7 +862,7 @@
       <c r="X2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2">
         <v>7841203682</v>
       </c>
     </row>
@@ -893,7 +870,7 @@
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C3" t="s">
@@ -908,10 +885,10 @@
       <c r="F3">
         <v>123456</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I3" t="s">
@@ -932,13 +909,13 @@
       <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>45384</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -962,39 +939,39 @@
       <c r="X3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="3">
-        <v>4523698203</v>
+      <c r="Y3">
+        <v>3836871546</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="1">
@@ -1009,13 +986,13 @@
       <c r="N4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>45384</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -1039,39 +1016,39 @@
       <c r="X4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4">
         <v>7841203682</v>
       </c>
     </row>
     <row r="5" ht="34.8" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K5" s="1">
@@ -1086,13 +1063,13 @@
       <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>45384</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -1116,7 +1093,7 @@
       <c r="X5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5">
         <v>7841203682</v>
       </c>
     </row>
@@ -1124,34 +1101,34 @@
       <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
         <v>1</v>
       </c>
       <c r="L6" t="s">
@@ -1163,13 +1140,13 @@
       <c r="N6" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>45384</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1193,7 +1170,7 @@
       <c r="X6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6">
         <v>7841203682</v>
       </c>
     </row>
@@ -1201,34 +1178,34 @@
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1240,16 +1217,16 @@
       <c r="N7" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>45384</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <v>7709577438</v>
       </c>
       <c r="S7" s="2" t="s">
@@ -1270,7 +1247,7 @@
       <c r="X7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7">
         <v>7841203682</v>
       </c>
     </row>
@@ -1278,34 +1255,34 @@
       <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1317,16 +1294,16 @@
       <c r="N8" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>45384</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="11">
         <v>7709577438</v>
       </c>
       <c r="S8" s="2" t="s">
@@ -1347,7 +1324,7 @@
       <c r="X8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8">
         <v>7841203682</v>
       </c>
     </row>
@@ -1355,31 +1332,31 @@
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="1">
@@ -1394,13 +1371,13 @@
       <c r="N9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>45384</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -1424,7 +1401,7 @@
       <c r="X9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9">
         <v>7841203682</v>
       </c>
     </row>
@@ -1432,31 +1409,31 @@
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>56</v>
       </c>
       <c r="K10" s="1">
@@ -1471,13 +1448,13 @@
       <c r="N10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>45384</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -1501,7 +1478,7 @@
       <c r="X10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10">
         <v>7841203682</v>
       </c>
     </row>
@@ -1509,34 +1486,34 @@
       <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>123456</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1548,16 +1525,16 @@
       <c r="N11" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>45384</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="11">
         <v>7709577438</v>
       </c>
       <c r="S11" s="2" t="s">
@@ -1578,7 +1555,7 @@
       <c r="X11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11">
         <v>7841203682</v>
       </c>
     </row>
@@ -1586,34 +1563,34 @@
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>123456</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -1625,16 +1602,16 @@
       <c r="N12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>45384</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="11">
         <v>7709577438</v>
       </c>
       <c r="S12" s="2" t="s">
@@ -1655,7 +1632,7 @@
       <c r="X12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12">
         <v>7841203682</v>
       </c>
     </row>
@@ -1663,34 +1640,34 @@
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1702,16 +1679,16 @@
       <c r="N13" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>45384</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <v>7709577438</v>
       </c>
       <c r="S13" s="2" t="s">
@@ -1732,7 +1709,7 @@
       <c r="X13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13">
         <v>7841203682</v>
       </c>
     </row>
@@ -1740,34 +1717,34 @@
       <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>123456</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1779,16 +1756,16 @@
       <c r="N14" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>45384</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="11">
         <v>7709577438</v>
       </c>
       <c r="S14" s="2" t="s">
@@ -1809,7 +1786,7 @@
       <c r="X14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14">
         <v>7841203682</v>
       </c>
     </row>
@@ -1817,34 +1794,34 @@
       <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -1856,16 +1833,16 @@
       <c r="N15" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>45384</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <v>7709577438</v>
       </c>
       <c r="S15" s="2" t="s">
@@ -1886,33 +1863,33 @@
       <c r="X15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15">
         <v>7841203682</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" ht="14.25">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1933,13 +1910,13 @@
       <c r="N16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>45384</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -1963,512 +1940,512 @@
       <c r="X16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16">
         <v>7841203682</v>
       </c>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
-      <c r="BA16" s="9"/>
-      <c r="BJ16" s="7"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="9"/>
-      <c r="BP16" s="9"/>
-      <c r="BQ16" s="9"/>
-      <c r="BR16" s="9"/>
-      <c r="CA16" s="7"/>
-      <c r="CB16" s="7"/>
-      <c r="CC16" s="7"/>
-      <c r="CE16" s="15"/>
-      <c r="CF16" s="9"/>
-      <c r="CG16" s="9"/>
-      <c r="CH16" s="9"/>
-      <c r="CI16" s="9"/>
-      <c r="CR16" s="7"/>
-      <c r="CS16" s="7"/>
-      <c r="CT16" s="7"/>
-      <c r="CV16" s="15"/>
-      <c r="CW16" s="9"/>
-      <c r="CX16" s="9"/>
-      <c r="CY16" s="9"/>
-      <c r="CZ16" s="9"/>
-      <c r="DI16" s="7"/>
-      <c r="DJ16" s="7"/>
-      <c r="DK16" s="7"/>
-      <c r="DM16" s="15"/>
-      <c r="DN16" s="9"/>
-      <c r="DO16" s="9"/>
-      <c r="DP16" s="9"/>
-      <c r="DQ16" s="9"/>
-      <c r="DZ16" s="7"/>
-      <c r="EA16" s="7"/>
-      <c r="EB16" s="7"/>
-      <c r="ED16" s="15"/>
-      <c r="EE16" s="9"/>
-      <c r="EF16" s="9"/>
-      <c r="EG16" s="9"/>
-      <c r="EH16" s="9"/>
-      <c r="EQ16" s="7"/>
-      <c r="ER16" s="7"/>
-      <c r="ES16" s="7"/>
-      <c r="EU16" s="15"/>
-      <c r="EV16" s="9"/>
-      <c r="EW16" s="9"/>
-      <c r="EX16" s="9"/>
-      <c r="EY16" s="9"/>
-      <c r="FH16" s="7"/>
-      <c r="FI16" s="7"/>
-      <c r="FJ16" s="7"/>
-      <c r="FL16" s="15"/>
-      <c r="FM16" s="9"/>
-      <c r="FN16" s="9"/>
-      <c r="FO16" s="9"/>
-      <c r="FP16" s="9"/>
-      <c r="FY16" s="7"/>
-      <c r="FZ16" s="7"/>
-      <c r="GA16" s="7"/>
-      <c r="GC16" s="15"/>
-      <c r="GD16" s="9"/>
-      <c r="GE16" s="9"/>
-      <c r="GF16" s="9"/>
-      <c r="GG16" s="9"/>
-      <c r="GP16" s="7"/>
-      <c r="GQ16" s="7"/>
-      <c r="GR16" s="7"/>
-      <c r="GT16" s="15"/>
-      <c r="GU16" s="9"/>
-      <c r="GV16" s="9"/>
-      <c r="GW16" s="9"/>
-      <c r="GX16" s="9"/>
-      <c r="HG16" s="7"/>
-      <c r="HH16" s="7"/>
-      <c r="HI16" s="7"/>
-      <c r="HK16" s="15"/>
-      <c r="HL16" s="9"/>
-      <c r="HM16" s="9"/>
-      <c r="HN16" s="9"/>
-      <c r="HO16" s="9"/>
-      <c r="HX16" s="7"/>
-      <c r="HY16" s="7"/>
-      <c r="HZ16" s="7"/>
-      <c r="IB16" s="15"/>
-      <c r="IC16" s="9"/>
-      <c r="ID16" s="9"/>
-      <c r="IE16" s="9"/>
-      <c r="IF16" s="9"/>
-      <c r="IO16" s="7"/>
-      <c r="IP16" s="7"/>
-      <c r="IQ16" s="7"/>
-      <c r="IS16" s="15"/>
-      <c r="IT16" s="9"/>
-      <c r="IU16" s="9"/>
-      <c r="IV16" s="9"/>
-      <c r="IW16" s="9"/>
-      <c r="JF16" s="7"/>
-      <c r="JG16" s="7"/>
-      <c r="JH16" s="7"/>
-      <c r="JJ16" s="15"/>
-      <c r="JK16" s="9"/>
-      <c r="JL16" s="9"/>
-      <c r="JM16" s="9"/>
-      <c r="JN16" s="9"/>
-      <c r="JW16" s="7"/>
-      <c r="JX16" s="7"/>
-      <c r="JY16" s="7"/>
-      <c r="KA16" s="15"/>
-      <c r="KB16" s="9"/>
-      <c r="KC16" s="9"/>
-      <c r="KD16" s="9"/>
-      <c r="KE16" s="9"/>
-      <c r="KN16" s="7"/>
-      <c r="KO16" s="7"/>
-      <c r="KP16" s="7"/>
-      <c r="KR16" s="15"/>
-      <c r="KS16" s="9"/>
-      <c r="KT16" s="9"/>
-      <c r="KU16" s="9"/>
-      <c r="KV16" s="9"/>
-      <c r="LE16" s="7"/>
-      <c r="LF16" s="7"/>
-      <c r="LG16" s="7"/>
-      <c r="LI16" s="15"/>
-      <c r="LJ16" s="9"/>
-      <c r="LK16" s="9"/>
-      <c r="LL16" s="9"/>
-      <c r="LM16" s="9"/>
-      <c r="LV16" s="7"/>
-      <c r="LW16" s="7"/>
-      <c r="LX16" s="7"/>
-      <c r="LZ16" s="15"/>
-      <c r="MA16" s="9"/>
-      <c r="MB16" s="9"/>
-      <c r="MC16" s="9"/>
-      <c r="MD16" s="9"/>
-      <c r="MM16" s="7"/>
-      <c r="MN16" s="7"/>
-      <c r="MO16" s="7"/>
-      <c r="MQ16" s="15"/>
-      <c r="MR16" s="9"/>
-      <c r="MS16" s="9"/>
-      <c r="MT16" s="9"/>
-      <c r="MU16" s="9"/>
-      <c r="ND16" s="7"/>
-      <c r="NE16" s="7"/>
-      <c r="NF16" s="7"/>
-      <c r="NH16" s="15"/>
-      <c r="NI16" s="9"/>
-      <c r="NJ16" s="9"/>
-      <c r="NK16" s="9"/>
-      <c r="NL16" s="9"/>
-      <c r="NU16" s="7"/>
-      <c r="NV16" s="7"/>
-      <c r="NW16" s="7"/>
-      <c r="NY16" s="15"/>
-      <c r="NZ16" s="9"/>
-      <c r="OA16" s="9"/>
-      <c r="OB16" s="9"/>
-      <c r="OC16" s="9"/>
-      <c r="OL16" s="7"/>
-      <c r="OM16" s="7"/>
-      <c r="ON16" s="7"/>
-      <c r="OP16" s="15"/>
-      <c r="OQ16" s="9"/>
-      <c r="OR16" s="9"/>
-      <c r="OS16" s="9"/>
-      <c r="OT16" s="9"/>
-      <c r="PC16" s="7"/>
-      <c r="PD16" s="7"/>
-      <c r="PE16" s="7"/>
-      <c r="PG16" s="15"/>
-      <c r="PH16" s="9"/>
-      <c r="PI16" s="9"/>
-      <c r="PJ16" s="9"/>
-      <c r="PK16" s="9"/>
-      <c r="PT16" s="7"/>
-      <c r="PU16" s="7"/>
-      <c r="PV16" s="7"/>
-      <c r="PX16" s="15"/>
-      <c r="PY16" s="9"/>
-      <c r="PZ16" s="9"/>
-      <c r="QA16" s="9"/>
-      <c r="QB16" s="9"/>
-      <c r="QK16" s="7"/>
-      <c r="QL16" s="7"/>
-      <c r="QM16" s="7"/>
-      <c r="QO16" s="15"/>
-      <c r="QP16" s="9"/>
-      <c r="QQ16" s="9"/>
-      <c r="QR16" s="9"/>
-      <c r="QS16" s="9"/>
-      <c r="RB16" s="7"/>
-      <c r="RC16" s="7"/>
-      <c r="RD16" s="7"/>
-      <c r="RF16" s="15"/>
-      <c r="RG16" s="9"/>
-      <c r="RH16" s="9"/>
-      <c r="RI16" s="9"/>
-      <c r="RJ16" s="9"/>
-      <c r="RS16" s="7"/>
-      <c r="RT16" s="7"/>
-      <c r="RU16" s="7"/>
-      <c r="RW16" s="15"/>
-      <c r="RX16" s="9"/>
-      <c r="RY16" s="9"/>
-      <c r="RZ16" s="9"/>
-      <c r="SA16" s="9"/>
-      <c r="SJ16" s="7"/>
-      <c r="SK16" s="7"/>
-      <c r="SL16" s="7"/>
-      <c r="SN16" s="15"/>
-      <c r="SO16" s="9"/>
-      <c r="SP16" s="9"/>
-      <c r="SQ16" s="9"/>
-      <c r="SR16" s="9"/>
-      <c r="TA16" s="7"/>
-      <c r="TB16" s="7"/>
-      <c r="TC16" s="7"/>
-      <c r="TE16" s="15"/>
-      <c r="TF16" s="9"/>
-      <c r="TG16" s="9"/>
-      <c r="TH16" s="9"/>
-      <c r="TI16" s="9"/>
-      <c r="TR16" s="7"/>
-      <c r="TS16" s="7"/>
-      <c r="TT16" s="7"/>
-      <c r="TV16" s="15"/>
-      <c r="TW16" s="9"/>
-      <c r="TX16" s="9"/>
-      <c r="TY16" s="9"/>
-      <c r="TZ16" s="9"/>
-      <c r="UI16" s="7"/>
-      <c r="UJ16" s="7"/>
-      <c r="UK16" s="7"/>
-      <c r="UM16" s="15"/>
-      <c r="UN16" s="9"/>
-      <c r="UO16" s="9"/>
-      <c r="UP16" s="9"/>
-      <c r="UQ16" s="9"/>
-      <c r="UZ16" s="7"/>
-      <c r="VA16" s="7"/>
-      <c r="VB16" s="7"/>
-      <c r="VD16" s="15"/>
-      <c r="VE16" s="9"/>
-      <c r="VF16" s="9"/>
-      <c r="VG16" s="9"/>
-      <c r="VH16" s="9"/>
-      <c r="VQ16" s="7"/>
-      <c r="VR16" s="7"/>
-      <c r="VS16" s="7"/>
-      <c r="VU16" s="15"/>
-      <c r="VV16" s="9"/>
-      <c r="VW16" s="9"/>
-      <c r="VX16" s="9"/>
-      <c r="VY16" s="9"/>
-      <c r="WH16" s="7"/>
-      <c r="WI16" s="7"/>
-      <c r="WJ16" s="7"/>
-      <c r="WL16" s="15"/>
-      <c r="WM16" s="9"/>
-      <c r="WN16" s="9"/>
-      <c r="WO16" s="9"/>
-      <c r="WP16" s="9"/>
-      <c r="WY16" s="7"/>
-      <c r="WZ16" s="7"/>
-      <c r="XA16" s="7"/>
-      <c r="XC16" s="15"/>
-      <c r="XD16" s="9"/>
-      <c r="XE16" s="9"/>
-      <c r="XF16" s="9"/>
-      <c r="XG16" s="9"/>
-      <c r="XP16" s="7"/>
-      <c r="XQ16" s="7"/>
-      <c r="XR16" s="7"/>
-      <c r="XT16" s="15"/>
-      <c r="XU16" s="9"/>
-      <c r="XV16" s="9"/>
-      <c r="XW16" s="9"/>
-      <c r="XX16" s="9"/>
-      <c r="YG16" s="7"/>
-      <c r="YH16" s="7"/>
-      <c r="YI16" s="7"/>
-      <c r="YK16" s="15"/>
-      <c r="YL16" s="9"/>
-      <c r="YM16" s="9"/>
-      <c r="YN16" s="9"/>
-      <c r="YO16" s="9"/>
-      <c r="YX16" s="7"/>
-      <c r="YY16" s="7"/>
-      <c r="YZ16" s="7"/>
-      <c r="ZB16" s="15"/>
-      <c r="ZC16" s="9"/>
-      <c r="ZD16" s="9"/>
-      <c r="ZE16" s="9"/>
-      <c r="ZF16" s="9"/>
-      <c r="ZO16" s="7"/>
-      <c r="ZP16" s="7"/>
-      <c r="ZQ16" s="7"/>
-      <c r="ZS16" s="15"/>
-      <c r="ZT16" s="9"/>
-      <c r="ZU16" s="9"/>
-      <c r="ZV16" s="9"/>
-      <c r="ZW16" s="9"/>
-      <c r="AAF16" s="7"/>
-      <c r="AAG16" s="7"/>
-      <c r="AAH16" s="7"/>
-      <c r="AAJ16" s="15"/>
-      <c r="AAK16" s="9"/>
-      <c r="AAL16" s="9"/>
-      <c r="AAM16" s="9"/>
-      <c r="AAN16" s="9"/>
-      <c r="AAW16" s="7"/>
-      <c r="AAX16" s="7"/>
-      <c r="AAY16" s="7"/>
-      <c r="ABA16" s="15"/>
-      <c r="ABB16" s="9"/>
-      <c r="ABC16" s="9"/>
-      <c r="ABD16" s="9"/>
-      <c r="ABE16" s="9"/>
-      <c r="ABN16" s="7"/>
-      <c r="ABO16" s="7"/>
-      <c r="ABP16" s="7"/>
-      <c r="ABR16" s="15"/>
-      <c r="ABS16" s="9"/>
-      <c r="ABT16" s="9"/>
-      <c r="ABU16" s="9"/>
-      <c r="ABV16" s="9"/>
-      <c r="ACE16" s="7"/>
-      <c r="ACF16" s="7"/>
-      <c r="ACG16" s="7"/>
-      <c r="ACI16" s="15"/>
-      <c r="ACJ16" s="9"/>
-      <c r="ACK16" s="9"/>
-      <c r="ACL16" s="9"/>
-      <c r="ACM16" s="9"/>
-      <c r="ACV16" s="7"/>
-      <c r="ACW16" s="7"/>
-      <c r="ACX16" s="7"/>
-      <c r="ACZ16" s="15"/>
-      <c r="ADA16" s="9"/>
-      <c r="ADB16" s="9"/>
-      <c r="ADC16" s="9"/>
-      <c r="ADD16" s="9"/>
-      <c r="ADM16" s="7"/>
-      <c r="ADN16" s="7"/>
-      <c r="ADO16" s="7"/>
-      <c r="ADQ16" s="15"/>
-      <c r="ADR16" s="9"/>
-      <c r="ADS16" s="9"/>
-      <c r="ADT16" s="9"/>
-      <c r="ADU16" s="9"/>
-      <c r="AED16" s="7"/>
-      <c r="AEE16" s="7"/>
-      <c r="AEF16" s="7"/>
-      <c r="AEH16" s="15"/>
-      <c r="AEI16" s="9"/>
-      <c r="AEJ16" s="9"/>
-      <c r="AEK16" s="9"/>
-      <c r="AEL16" s="9"/>
-      <c r="AEU16" s="7"/>
-      <c r="AEV16" s="7"/>
-      <c r="AEW16" s="7"/>
-      <c r="AEY16" s="15"/>
-      <c r="AEZ16" s="9"/>
-      <c r="AFA16" s="9"/>
-      <c r="AFB16" s="9"/>
-      <c r="AFC16" s="9"/>
-      <c r="AFL16" s="7"/>
-      <c r="AFM16" s="7"/>
-      <c r="AFN16" s="7"/>
-      <c r="AFP16" s="15"/>
-      <c r="AFQ16" s="9"/>
-      <c r="AFR16" s="9"/>
-      <c r="AFS16" s="9"/>
-      <c r="AFT16" s="9"/>
-      <c r="AGC16" s="7"/>
-      <c r="AGD16" s="7"/>
-      <c r="AGE16" s="7"/>
-      <c r="AGG16" s="15"/>
-      <c r="AGH16" s="9"/>
-      <c r="AGI16" s="9"/>
-      <c r="AGJ16" s="9"/>
-      <c r="AGK16" s="9"/>
-      <c r="AGT16" s="7"/>
-      <c r="AGU16" s="7"/>
-      <c r="AGV16" s="7"/>
-      <c r="AGX16" s="15"/>
-      <c r="AGY16" s="9"/>
-      <c r="AGZ16" s="9"/>
-      <c r="AHA16" s="9"/>
-      <c r="AHB16" s="9"/>
-      <c r="AHK16" s="7"/>
-      <c r="AHL16" s="7"/>
-      <c r="AHM16" s="7"/>
-      <c r="AHO16" s="15"/>
-      <c r="AHP16" s="9"/>
-      <c r="AHQ16" s="9"/>
-      <c r="AHR16" s="9"/>
-      <c r="AHS16" s="9"/>
-      <c r="AIB16" s="7"/>
-      <c r="AIC16" s="7"/>
-      <c r="AID16" s="7"/>
-      <c r="AIF16" s="15"/>
-      <c r="AIG16" s="9"/>
-      <c r="AIH16" s="9"/>
-      <c r="AII16" s="9"/>
-      <c r="AIJ16" s="9"/>
-      <c r="AIS16" s="7"/>
-      <c r="AIT16" s="7"/>
-      <c r="AIU16" s="7"/>
-      <c r="AIW16" s="15"/>
-      <c r="AIX16" s="9"/>
-      <c r="AIY16" s="9"/>
-      <c r="AIZ16" s="9"/>
-      <c r="AJA16" s="9"/>
-      <c r="AJJ16" s="7"/>
-      <c r="AJK16" s="7"/>
-      <c r="AJL16" s="7"/>
-      <c r="AJN16" s="15"/>
-      <c r="AJO16" s="9"/>
-      <c r="AJP16" s="9"/>
-      <c r="AJQ16" s="9"/>
-      <c r="AJR16" s="9"/>
-      <c r="AKA16" s="7"/>
-      <c r="AKB16" s="7"/>
-      <c r="AKC16" s="7"/>
-      <c r="AKE16" s="15"/>
-      <c r="AKF16" s="9"/>
-      <c r="AKG16" s="9"/>
-      <c r="AKH16" s="9"/>
-      <c r="AKI16" s="9"/>
-      <c r="AKR16" s="7"/>
-      <c r="AKS16" s="7"/>
-      <c r="AKT16" s="7"/>
-      <c r="AKV16" s="15"/>
-      <c r="AKW16" s="9"/>
-      <c r="AKX16" s="9"/>
-      <c r="AKY16" s="9"/>
-      <c r="AKZ16" s="9"/>
-      <c r="ALI16" s="7"/>
-      <c r="ALJ16" s="7"/>
-      <c r="ALK16" s="7"/>
-      <c r="ALM16" s="15"/>
-      <c r="ALN16" s="9"/>
-      <c r="ALO16" s="9"/>
-      <c r="ALP16" s="9"/>
-      <c r="ALQ16" s="9"/>
-      <c r="ALZ16" s="7"/>
-      <c r="AMA16" s="7"/>
-      <c r="AMB16" s="7"/>
-      <c r="AMD16" s="15"/>
-      <c r="AME16" s="9"/>
-      <c r="AMF16" s="9"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="8"/>
+      <c r="BP16" s="8"/>
+      <c r="BQ16" s="8"/>
+      <c r="BR16" s="8"/>
+      <c r="CA16" s="6"/>
+      <c r="CB16" s="6"/>
+      <c r="CC16" s="6"/>
+      <c r="CE16" s="14"/>
+      <c r="CF16" s="8"/>
+      <c r="CG16" s="8"/>
+      <c r="CH16" s="8"/>
+      <c r="CI16" s="8"/>
+      <c r="CR16" s="6"/>
+      <c r="CS16" s="6"/>
+      <c r="CT16" s="6"/>
+      <c r="CV16" s="14"/>
+      <c r="CW16" s="8"/>
+      <c r="CX16" s="8"/>
+      <c r="CY16" s="8"/>
+      <c r="CZ16" s="8"/>
+      <c r="DI16" s="6"/>
+      <c r="DJ16" s="6"/>
+      <c r="DK16" s="6"/>
+      <c r="DM16" s="14"/>
+      <c r="DN16" s="8"/>
+      <c r="DO16" s="8"/>
+      <c r="DP16" s="8"/>
+      <c r="DQ16" s="8"/>
+      <c r="DZ16" s="6"/>
+      <c r="EA16" s="6"/>
+      <c r="EB16" s="6"/>
+      <c r="ED16" s="14"/>
+      <c r="EE16" s="8"/>
+      <c r="EF16" s="8"/>
+      <c r="EG16" s="8"/>
+      <c r="EH16" s="8"/>
+      <c r="EQ16" s="6"/>
+      <c r="ER16" s="6"/>
+      <c r="ES16" s="6"/>
+      <c r="EU16" s="14"/>
+      <c r="EV16" s="8"/>
+      <c r="EW16" s="8"/>
+      <c r="EX16" s="8"/>
+      <c r="EY16" s="8"/>
+      <c r="FH16" s="6"/>
+      <c r="FI16" s="6"/>
+      <c r="FJ16" s="6"/>
+      <c r="FL16" s="14"/>
+      <c r="FM16" s="8"/>
+      <c r="FN16" s="8"/>
+      <c r="FO16" s="8"/>
+      <c r="FP16" s="8"/>
+      <c r="FY16" s="6"/>
+      <c r="FZ16" s="6"/>
+      <c r="GA16" s="6"/>
+      <c r="GC16" s="14"/>
+      <c r="GD16" s="8"/>
+      <c r="GE16" s="8"/>
+      <c r="GF16" s="8"/>
+      <c r="GG16" s="8"/>
+      <c r="GP16" s="6"/>
+      <c r="GQ16" s="6"/>
+      <c r="GR16" s="6"/>
+      <c r="GT16" s="14"/>
+      <c r="GU16" s="8"/>
+      <c r="GV16" s="8"/>
+      <c r="GW16" s="8"/>
+      <c r="GX16" s="8"/>
+      <c r="HG16" s="6"/>
+      <c r="HH16" s="6"/>
+      <c r="HI16" s="6"/>
+      <c r="HK16" s="14"/>
+      <c r="HL16" s="8"/>
+      <c r="HM16" s="8"/>
+      <c r="HN16" s="8"/>
+      <c r="HO16" s="8"/>
+      <c r="HX16" s="6"/>
+      <c r="HY16" s="6"/>
+      <c r="HZ16" s="6"/>
+      <c r="IB16" s="14"/>
+      <c r="IC16" s="8"/>
+      <c r="ID16" s="8"/>
+      <c r="IE16" s="8"/>
+      <c r="IF16" s="8"/>
+      <c r="IO16" s="6"/>
+      <c r="IP16" s="6"/>
+      <c r="IQ16" s="6"/>
+      <c r="IS16" s="14"/>
+      <c r="IT16" s="8"/>
+      <c r="IU16" s="8"/>
+      <c r="IV16" s="8"/>
+      <c r="IW16" s="8"/>
+      <c r="JF16" s="6"/>
+      <c r="JG16" s="6"/>
+      <c r="JH16" s="6"/>
+      <c r="JJ16" s="14"/>
+      <c r="JK16" s="8"/>
+      <c r="JL16" s="8"/>
+      <c r="JM16" s="8"/>
+      <c r="JN16" s="8"/>
+      <c r="JW16" s="6"/>
+      <c r="JX16" s="6"/>
+      <c r="JY16" s="6"/>
+      <c r="KA16" s="14"/>
+      <c r="KB16" s="8"/>
+      <c r="KC16" s="8"/>
+      <c r="KD16" s="8"/>
+      <c r="KE16" s="8"/>
+      <c r="KN16" s="6"/>
+      <c r="KO16" s="6"/>
+      <c r="KP16" s="6"/>
+      <c r="KR16" s="14"/>
+      <c r="KS16" s="8"/>
+      <c r="KT16" s="8"/>
+      <c r="KU16" s="8"/>
+      <c r="KV16" s="8"/>
+      <c r="LE16" s="6"/>
+      <c r="LF16" s="6"/>
+      <c r="LG16" s="6"/>
+      <c r="LI16" s="14"/>
+      <c r="LJ16" s="8"/>
+      <c r="LK16" s="8"/>
+      <c r="LL16" s="8"/>
+      <c r="LM16" s="8"/>
+      <c r="LV16" s="6"/>
+      <c r="LW16" s="6"/>
+      <c r="LX16" s="6"/>
+      <c r="LZ16" s="14"/>
+      <c r="MA16" s="8"/>
+      <c r="MB16" s="8"/>
+      <c r="MC16" s="8"/>
+      <c r="MD16" s="8"/>
+      <c r="MM16" s="6"/>
+      <c r="MN16" s="6"/>
+      <c r="MO16" s="6"/>
+      <c r="MQ16" s="14"/>
+      <c r="MR16" s="8"/>
+      <c r="MS16" s="8"/>
+      <c r="MT16" s="8"/>
+      <c r="MU16" s="8"/>
+      <c r="ND16" s="6"/>
+      <c r="NE16" s="6"/>
+      <c r="NF16" s="6"/>
+      <c r="NH16" s="14"/>
+      <c r="NI16" s="8"/>
+      <c r="NJ16" s="8"/>
+      <c r="NK16" s="8"/>
+      <c r="NL16" s="8"/>
+      <c r="NU16" s="6"/>
+      <c r="NV16" s="6"/>
+      <c r="NW16" s="6"/>
+      <c r="NY16" s="14"/>
+      <c r="NZ16" s="8"/>
+      <c r="OA16" s="8"/>
+      <c r="OB16" s="8"/>
+      <c r="OC16" s="8"/>
+      <c r="OL16" s="6"/>
+      <c r="OM16" s="6"/>
+      <c r="ON16" s="6"/>
+      <c r="OP16" s="14"/>
+      <c r="OQ16" s="8"/>
+      <c r="OR16" s="8"/>
+      <c r="OS16" s="8"/>
+      <c r="OT16" s="8"/>
+      <c r="PC16" s="6"/>
+      <c r="PD16" s="6"/>
+      <c r="PE16" s="6"/>
+      <c r="PG16" s="14"/>
+      <c r="PH16" s="8"/>
+      <c r="PI16" s="8"/>
+      <c r="PJ16" s="8"/>
+      <c r="PK16" s="8"/>
+      <c r="PT16" s="6"/>
+      <c r="PU16" s="6"/>
+      <c r="PV16" s="6"/>
+      <c r="PX16" s="14"/>
+      <c r="PY16" s="8"/>
+      <c r="PZ16" s="8"/>
+      <c r="QA16" s="8"/>
+      <c r="QB16" s="8"/>
+      <c r="QK16" s="6"/>
+      <c r="QL16" s="6"/>
+      <c r="QM16" s="6"/>
+      <c r="QO16" s="14"/>
+      <c r="QP16" s="8"/>
+      <c r="QQ16" s="8"/>
+      <c r="QR16" s="8"/>
+      <c r="QS16" s="8"/>
+      <c r="RB16" s="6"/>
+      <c r="RC16" s="6"/>
+      <c r="RD16" s="6"/>
+      <c r="RF16" s="14"/>
+      <c r="RG16" s="8"/>
+      <c r="RH16" s="8"/>
+      <c r="RI16" s="8"/>
+      <c r="RJ16" s="8"/>
+      <c r="RS16" s="6"/>
+      <c r="RT16" s="6"/>
+      <c r="RU16" s="6"/>
+      <c r="RW16" s="14"/>
+      <c r="RX16" s="8"/>
+      <c r="RY16" s="8"/>
+      <c r="RZ16" s="8"/>
+      <c r="SA16" s="8"/>
+      <c r="SJ16" s="6"/>
+      <c r="SK16" s="6"/>
+      <c r="SL16" s="6"/>
+      <c r="SN16" s="14"/>
+      <c r="SO16" s="8"/>
+      <c r="SP16" s="8"/>
+      <c r="SQ16" s="8"/>
+      <c r="SR16" s="8"/>
+      <c r="TA16" s="6"/>
+      <c r="TB16" s="6"/>
+      <c r="TC16" s="6"/>
+      <c r="TE16" s="14"/>
+      <c r="TF16" s="8"/>
+      <c r="TG16" s="8"/>
+      <c r="TH16" s="8"/>
+      <c r="TI16" s="8"/>
+      <c r="TR16" s="6"/>
+      <c r="TS16" s="6"/>
+      <c r="TT16" s="6"/>
+      <c r="TV16" s="14"/>
+      <c r="TW16" s="8"/>
+      <c r="TX16" s="8"/>
+      <c r="TY16" s="8"/>
+      <c r="TZ16" s="8"/>
+      <c r="UI16" s="6"/>
+      <c r="UJ16" s="6"/>
+      <c r="UK16" s="6"/>
+      <c r="UM16" s="14"/>
+      <c r="UN16" s="8"/>
+      <c r="UO16" s="8"/>
+      <c r="UP16" s="8"/>
+      <c r="UQ16" s="8"/>
+      <c r="UZ16" s="6"/>
+      <c r="VA16" s="6"/>
+      <c r="VB16" s="6"/>
+      <c r="VD16" s="14"/>
+      <c r="VE16" s="8"/>
+      <c r="VF16" s="8"/>
+      <c r="VG16" s="8"/>
+      <c r="VH16" s="8"/>
+      <c r="VQ16" s="6"/>
+      <c r="VR16" s="6"/>
+      <c r="VS16" s="6"/>
+      <c r="VU16" s="14"/>
+      <c r="VV16" s="8"/>
+      <c r="VW16" s="8"/>
+      <c r="VX16" s="8"/>
+      <c r="VY16" s="8"/>
+      <c r="WH16" s="6"/>
+      <c r="WI16" s="6"/>
+      <c r="WJ16" s="6"/>
+      <c r="WL16" s="14"/>
+      <c r="WM16" s="8"/>
+      <c r="WN16" s="8"/>
+      <c r="WO16" s="8"/>
+      <c r="WP16" s="8"/>
+      <c r="WY16" s="6"/>
+      <c r="WZ16" s="6"/>
+      <c r="XA16" s="6"/>
+      <c r="XC16" s="14"/>
+      <c r="XD16" s="8"/>
+      <c r="XE16" s="8"/>
+      <c r="XF16" s="8"/>
+      <c r="XG16" s="8"/>
+      <c r="XP16" s="6"/>
+      <c r="XQ16" s="6"/>
+      <c r="XR16" s="6"/>
+      <c r="XT16" s="14"/>
+      <c r="XU16" s="8"/>
+      <c r="XV16" s="8"/>
+      <c r="XW16" s="8"/>
+      <c r="XX16" s="8"/>
+      <c r="YG16" s="6"/>
+      <c r="YH16" s="6"/>
+      <c r="YI16" s="6"/>
+      <c r="YK16" s="14"/>
+      <c r="YL16" s="8"/>
+      <c r="YM16" s="8"/>
+      <c r="YN16" s="8"/>
+      <c r="YO16" s="8"/>
+      <c r="YX16" s="6"/>
+      <c r="YY16" s="6"/>
+      <c r="YZ16" s="6"/>
+      <c r="ZB16" s="14"/>
+      <c r="ZC16" s="8"/>
+      <c r="ZD16" s="8"/>
+      <c r="ZE16" s="8"/>
+      <c r="ZF16" s="8"/>
+      <c r="ZO16" s="6"/>
+      <c r="ZP16" s="6"/>
+      <c r="ZQ16" s="6"/>
+      <c r="ZS16" s="14"/>
+      <c r="ZT16" s="8"/>
+      <c r="ZU16" s="8"/>
+      <c r="ZV16" s="8"/>
+      <c r="ZW16" s="8"/>
+      <c r="AAF16" s="6"/>
+      <c r="AAG16" s="6"/>
+      <c r="AAH16" s="6"/>
+      <c r="AAJ16" s="14"/>
+      <c r="AAK16" s="8"/>
+      <c r="AAL16" s="8"/>
+      <c r="AAM16" s="8"/>
+      <c r="AAN16" s="8"/>
+      <c r="AAW16" s="6"/>
+      <c r="AAX16" s="6"/>
+      <c r="AAY16" s="6"/>
+      <c r="ABA16" s="14"/>
+      <c r="ABB16" s="8"/>
+      <c r="ABC16" s="8"/>
+      <c r="ABD16" s="8"/>
+      <c r="ABE16" s="8"/>
+      <c r="ABN16" s="6"/>
+      <c r="ABO16" s="6"/>
+      <c r="ABP16" s="6"/>
+      <c r="ABR16" s="14"/>
+      <c r="ABS16" s="8"/>
+      <c r="ABT16" s="8"/>
+      <c r="ABU16" s="8"/>
+      <c r="ABV16" s="8"/>
+      <c r="ACE16" s="6"/>
+      <c r="ACF16" s="6"/>
+      <c r="ACG16" s="6"/>
+      <c r="ACI16" s="14"/>
+      <c r="ACJ16" s="8"/>
+      <c r="ACK16" s="8"/>
+      <c r="ACL16" s="8"/>
+      <c r="ACM16" s="8"/>
+      <c r="ACV16" s="6"/>
+      <c r="ACW16" s="6"/>
+      <c r="ACX16" s="6"/>
+      <c r="ACZ16" s="14"/>
+      <c r="ADA16" s="8"/>
+      <c r="ADB16" s="8"/>
+      <c r="ADC16" s="8"/>
+      <c r="ADD16" s="8"/>
+      <c r="ADM16" s="6"/>
+      <c r="ADN16" s="6"/>
+      <c r="ADO16" s="6"/>
+      <c r="ADQ16" s="14"/>
+      <c r="ADR16" s="8"/>
+      <c r="ADS16" s="8"/>
+      <c r="ADT16" s="8"/>
+      <c r="ADU16" s="8"/>
+      <c r="AED16" s="6"/>
+      <c r="AEE16" s="6"/>
+      <c r="AEF16" s="6"/>
+      <c r="AEH16" s="14"/>
+      <c r="AEI16" s="8"/>
+      <c r="AEJ16" s="8"/>
+      <c r="AEK16" s="8"/>
+      <c r="AEL16" s="8"/>
+      <c r="AEU16" s="6"/>
+      <c r="AEV16" s="6"/>
+      <c r="AEW16" s="6"/>
+      <c r="AEY16" s="14"/>
+      <c r="AEZ16" s="8"/>
+      <c r="AFA16" s="8"/>
+      <c r="AFB16" s="8"/>
+      <c r="AFC16" s="8"/>
+      <c r="AFL16" s="6"/>
+      <c r="AFM16" s="6"/>
+      <c r="AFN16" s="6"/>
+      <c r="AFP16" s="14"/>
+      <c r="AFQ16" s="8"/>
+      <c r="AFR16" s="8"/>
+      <c r="AFS16" s="8"/>
+      <c r="AFT16" s="8"/>
+      <c r="AGC16" s="6"/>
+      <c r="AGD16" s="6"/>
+      <c r="AGE16" s="6"/>
+      <c r="AGG16" s="14"/>
+      <c r="AGH16" s="8"/>
+      <c r="AGI16" s="8"/>
+      <c r="AGJ16" s="8"/>
+      <c r="AGK16" s="8"/>
+      <c r="AGT16" s="6"/>
+      <c r="AGU16" s="6"/>
+      <c r="AGV16" s="6"/>
+      <c r="AGX16" s="14"/>
+      <c r="AGY16" s="8"/>
+      <c r="AGZ16" s="8"/>
+      <c r="AHA16" s="8"/>
+      <c r="AHB16" s="8"/>
+      <c r="AHK16" s="6"/>
+      <c r="AHL16" s="6"/>
+      <c r="AHM16" s="6"/>
+      <c r="AHO16" s="14"/>
+      <c r="AHP16" s="8"/>
+      <c r="AHQ16" s="8"/>
+      <c r="AHR16" s="8"/>
+      <c r="AHS16" s="8"/>
+      <c r="AIB16" s="6"/>
+      <c r="AIC16" s="6"/>
+      <c r="AID16" s="6"/>
+      <c r="AIF16" s="14"/>
+      <c r="AIG16" s="8"/>
+      <c r="AIH16" s="8"/>
+      <c r="AII16" s="8"/>
+      <c r="AIJ16" s="8"/>
+      <c r="AIS16" s="6"/>
+      <c r="AIT16" s="6"/>
+      <c r="AIU16" s="6"/>
+      <c r="AIW16" s="14"/>
+      <c r="AIX16" s="8"/>
+      <c r="AIY16" s="8"/>
+      <c r="AIZ16" s="8"/>
+      <c r="AJA16" s="8"/>
+      <c r="AJJ16" s="6"/>
+      <c r="AJK16" s="6"/>
+      <c r="AJL16" s="6"/>
+      <c r="AJN16" s="14"/>
+      <c r="AJO16" s="8"/>
+      <c r="AJP16" s="8"/>
+      <c r="AJQ16" s="8"/>
+      <c r="AJR16" s="8"/>
+      <c r="AKA16" s="6"/>
+      <c r="AKB16" s="6"/>
+      <c r="AKC16" s="6"/>
+      <c r="AKE16" s="14"/>
+      <c r="AKF16" s="8"/>
+      <c r="AKG16" s="8"/>
+      <c r="AKH16" s="8"/>
+      <c r="AKI16" s="8"/>
+      <c r="AKR16" s="6"/>
+      <c r="AKS16" s="6"/>
+      <c r="AKT16" s="6"/>
+      <c r="AKV16" s="14"/>
+      <c r="AKW16" s="8"/>
+      <c r="AKX16" s="8"/>
+      <c r="AKY16" s="8"/>
+      <c r="AKZ16" s="8"/>
+      <c r="ALI16" s="6"/>
+      <c r="ALJ16" s="6"/>
+      <c r="ALK16" s="6"/>
+      <c r="ALM16" s="14"/>
+      <c r="ALN16" s="8"/>
+      <c r="ALO16" s="8"/>
+      <c r="ALP16" s="8"/>
+      <c r="ALQ16" s="8"/>
+      <c r="ALZ16" s="6"/>
+      <c r="AMA16" s="6"/>
+      <c r="AMB16" s="6"/>
+      <c r="AMD16" s="14"/>
+      <c r="AME16" s="8"/>
+      <c r="AMF16" s="8"/>
     </row>
     <row r="17" ht="31.5" customHeight="1">
       <c r="A17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>123456</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="11">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2480,16 +2457,16 @@
       <c r="N17" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>45384</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="11">
         <v>7709577438</v>
       </c>
       <c r="S17" s="2" t="s">
@@ -2510,7 +2487,7 @@
       <c r="X17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17">
         <v>7841203682</v>
       </c>
     </row>
@@ -2518,13 +2495,13 @@
       <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>123456</v>
       </c>
       <c r="E18" t="s">
@@ -2533,19 +2510,19 @@
       <c r="F18">
         <v>123456</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="J18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -2557,13 +2534,13 @@
       <c r="N18" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <v>45384</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -2587,7 +2564,7 @@
       <c r="X18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18">
         <v>7841203682</v>
       </c>
     </row>
@@ -2595,25 +2572,25 @@
       <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2634,13 +2611,13 @@
       <c r="N19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <v>45384</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -2664,7 +2641,7 @@
       <c r="X19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19">
         <v>7841203682</v>
       </c>
     </row>
@@ -2672,7 +2649,7 @@
       <c r="A20" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
@@ -2687,19 +2664,19 @@
       <c r="F20">
         <v>123456</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="11" t="s">
+      <c r="J20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -2711,16 +2688,16 @@
       <c r="N20" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>45384</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <v>7709577438</v>
       </c>
       <c r="S20" s="2" t="s">
@@ -2741,7 +2718,7 @@
       <c r="X20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20">
         <v>7841203682</v>
       </c>
     </row>
@@ -2749,7 +2726,7 @@
       <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
@@ -2764,19 +2741,19 @@
       <c r="F21">
         <v>123456</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I21" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="11" t="s">
+      <c r="J21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2788,7 +2765,7 @@
       <c r="N21" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <v>45384</v>
       </c>
       <c r="P21" t="s">
@@ -2797,7 +2774,7 @@
       <c r="Q21" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <v>7709577438</v>
       </c>
       <c r="S21" s="2" t="s">
@@ -2818,7 +2795,7 @@
       <c r="X21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21">
         <v>7841203682</v>
       </c>
     </row>
@@ -2826,34 +2803,34 @@
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>123456</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -2865,16 +2842,16 @@
       <c r="N22" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>45384</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <v>7709577438</v>
       </c>
       <c r="S22" s="2" t="s">
@@ -2895,7 +2872,7 @@
       <c r="X22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22">
         <v>7841203682</v>
       </c>
     </row>
@@ -2903,34 +2880,34 @@
       <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>123456</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="11">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11">
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -2942,16 +2919,16 @@
       <c r="N23" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>45384</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="11">
         <v>7709577438</v>
       </c>
       <c r="S23" s="2" t="s">
@@ -2972,42 +2949,42 @@
       <c r="X23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23">
         <v>7841203682</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="14.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="11">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -3019,16 +2996,16 @@
       <c r="N24" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>45384</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="11">
         <v>7709577438</v>
       </c>
       <c r="S24" s="2" t="s">
@@ -3049,42 +3026,42 @@
       <c r="X24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24">
         <v>7841203682</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="14.25">
       <c r="A25" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11">
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -3096,16 +3073,16 @@
       <c r="N25" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>45384</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <v>6375266109</v>
       </c>
       <c r="S25" s="2" t="s">
@@ -3126,42 +3103,42 @@
       <c r="X25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25">
         <v>7841203682</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="14.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -3173,16 +3150,16 @@
       <c r="N26" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>45384</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="11">
         <v>7709577438</v>
       </c>
       <c r="S26" s="2" t="s">
@@ -3203,42 +3180,42 @@
       <c r="X26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26">
         <v>7841203682</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="14.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -3250,16 +3227,16 @@
       <c r="N27" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <v>45384</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="11">
         <v>7709577438</v>
       </c>
       <c r="S27" s="2" t="s">
@@ -3280,42 +3257,42 @@
       <c r="X27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27">
         <v>7841203682</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="14.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="11">
-        <v>1</v>
-      </c>
-      <c r="K28" s="11">
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -3327,16 +3304,16 @@
       <c r="N28" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>45384</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="11">
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
@@ -3357,139 +3334,139 @@
       <c r="X28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28">
         <v>7841203682</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
+    <row r="29" ht="14.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="I29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="I30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="I31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="I32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="12"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="I33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="12"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="I34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="12"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="I35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="12"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="I36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="12"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="I37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="12"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="I38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="12"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5118055" footer="0.5118055"/>
